--- a/data/outputs/management_elsevier/62.xlsx
+++ b/data/outputs/management_elsevier/62.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:BU29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84947487472</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1751</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1131,6 +1147,12 @@
         <is>
           <t>2-s2.0-84947487224</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>4356</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1331,6 +1353,12 @@
           <t>2-s2.0-84947489530</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2251</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1542,6 +1570,12 @@
           <t>2-s2.0-84947495309</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>4686</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1745,6 +1779,12 @@
           <t>2-s2.0-84943666019</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1956,6 +1996,12 @@
           <t>2-s2.0-84943664865</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3142</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2167,6 +2213,12 @@
           <t>2-s2.0-84943662355</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>5893</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2382,6 +2434,12 @@
           <t>2-s2.0-84943664904</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1939</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2597,6 +2655,12 @@
           <t>2-s2.0-84943662649</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1415</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2800,6 +2864,12 @@
           <t>2-s2.0-84939571035</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2632</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3011,6 +3081,12 @@
           <t>2-s2.0-84939565760</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1557</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3218,6 +3294,12 @@
           <t>2-s2.0-84939571141</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>12261</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3428,6 +3510,12 @@
         <is>
           <t>2-s2.0-84939572261</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -3632,6 +3720,12 @@
           <t>2-s2.0-84931570230</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>669</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3838,6 +3932,12 @@
         <is>
           <t>2-s2.0-84931573274</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>1652</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -4042,6 +4142,12 @@
           <t>2-s2.0-84931577183</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1295</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4253,6 +4359,12 @@
           <t>2-s2.0-84931564939</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2445</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4468,6 +4580,12 @@
           <t>2-s2.0-84931568242</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2669</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4687,6 +4805,12 @@
           <t>2-s2.0-84927175505</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>4544</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4892,6 +5016,12 @@
           <t>2-s2.0-84927175308</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1155</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5106,6 +5236,12 @@
         <is>
           <t>2-s2.0-84927173809</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>1567</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -5302,6 +5438,12 @@
           <t>2-s2.0-84927174059</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2457</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5517,6 +5659,12 @@
           <t>2-s2.0-84927178638</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2360</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5736,6 +5884,12 @@
           <t>2-s2.0-84922618020</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>3685</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5947,6 +6101,12 @@
           <t>2-s2.0-84922757419</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4601</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6166,6 +6326,12 @@
           <t>2-s2.0-84922708456</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2341</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6373,6 +6539,12 @@
           <t>2-s2.0-84922741402</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2629</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6580,6 +6752,12 @@
           <t>2-s2.0-84922613759</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1941</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
